--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -400,10 +400,10 @@
     <t>1100*550*50,1100*550*70</t>
   </si>
   <si>
-    <t>48Е.jpg</t>
-  </si>
-  <si>
-    <t>48Е-1.jpg,48Е-2.jpg,48Е-3.jpg</t>
+    <t>48E.jpg</t>
+  </si>
+  <si>
+    <t>48E-1.jpg,48E-2.jpg,48E-3.jpg</t>
   </si>
   <si>
     <t>800*450*50,1000*500*50,1100*500*50,1100*500*70,1200*600*70</t>
@@ -1315,7 +1315,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1344,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1354,18 +1353,12 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,7 +1593,6 @@
     <col customWidth="1" min="14" max="14" width="18.88"/>
     <col customWidth="1" min="15" max="15" width="83.0"/>
     <col customWidth="1" min="16" max="16" width="3.75"/>
-    <col customWidth="1" min="17" max="26" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1663,7 +1655,7 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>15300.0</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1690,10 +1682,10 @@
       <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="2">
@@ -1701,54 +1693,54 @@
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>10.0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>16300.0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="J3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>11.0</v>
       </c>
       <c r="B4" s="2"/>
@@ -1758,7 +1750,7 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>16300.0</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1770,7 +1762,7 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="2">
@@ -1785,10 +1777,10 @@
       <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="2">
@@ -1796,17 +1788,17 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>12.0</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>16900.0</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1833,7 +1825,7 @@
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="2"/>
@@ -1842,7 +1834,7 @@
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>13.0</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1851,7 +1843,7 @@
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>16900.0</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1878,10 +1870,10 @@
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P6" s="2">
@@ -1889,28 +1881,28 @@
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>14.0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>17200.0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="2">
@@ -1919,13 +1911,13 @@
       <c r="K7" s="2">
         <v>2.0</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="2">
@@ -1933,28 +1925,28 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>15.0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="2">
@@ -1963,16 +1955,16 @@
       <c r="K8" s="2">
         <v>2.0</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="2">
@@ -1980,28 +1972,28 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>16.0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="2">
@@ -2010,16 +2002,16 @@
       <c r="K9" s="2">
         <v>2.0</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P9" s="2">
@@ -2027,28 +2019,28 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>17.0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="2">
@@ -2057,16 +2049,16 @@
       <c r="K10" s="2">
         <v>2.0</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="P10" s="2">
@@ -2074,28 +2066,28 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>18.0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>16300.0</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="2">
@@ -2104,16 +2096,16 @@
       <c r="K11" s="2">
         <v>2.0</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="P11" s="2">
@@ -2121,28 +2113,28 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>19.0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>16900.0</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="2">
@@ -2151,16 +2143,16 @@
       <c r="K12" s="2">
         <v>2.0</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P12" s="2">
@@ -2168,28 +2160,28 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>20.0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="2">
@@ -2198,16 +2190,16 @@
       <c r="K13" s="2">
         <v>2.0</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="P13" s="2">
@@ -2215,28 +2207,28 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>21.0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>16900.0</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="2">
@@ -2245,16 +2237,16 @@
       <c r="K14" s="2">
         <v>2.0</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="P14" s="2">
@@ -2262,28 +2254,28 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>22.0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>17200.0</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="2">
@@ -2292,16 +2284,16 @@
       <c r="K15" s="2">
         <v>2.0</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P15" s="2">
@@ -2309,28 +2301,28 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>23.0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="J16" s="2">
@@ -2339,16 +2331,16 @@
       <c r="K16" s="2">
         <v>2.0</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="2">
@@ -2356,28 +2348,28 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>26.0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>21600.0</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="2">
@@ -2386,16 +2378,16 @@
       <c r="K17" s="2">
         <v>2.0</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="5" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="2">
@@ -2403,28 +2395,28 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>27.0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>21600.0</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="2">
@@ -2433,13 +2425,13 @@
       <c r="K18" s="2">
         <v>2.0</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>67</v>
       </c>
       <c r="P18" s="2">
@@ -2447,28 +2439,28 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>29.0</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="J19" s="2">
@@ -2477,16 +2469,16 @@
       <c r="K19" s="2">
         <v>2.0</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P19" s="2">
@@ -2494,28 +2486,28 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>30.0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>21600.0</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="5" t="s">
         <v>71</v>
       </c>
       <c r="J20" s="2">
@@ -2524,16 +2516,16 @@
       <c r="K20" s="2">
         <v>2.0</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="L20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="5" t="s">
         <v>73</v>
       </c>
       <c r="P20" s="2">
@@ -2541,28 +2533,28 @@
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>31.0</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>68000.0</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J21" s="2">
@@ -2571,16 +2563,16 @@
       <c r="K21" s="2">
         <v>2.0</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="L21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="P21" s="2">
@@ -2588,28 +2580,28 @@
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>32.0</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="2">
@@ -2618,16 +2610,16 @@
       <c r="K22" s="2">
         <v>2.0</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="L22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="5" t="s">
         <v>82</v>
       </c>
       <c r="P22" s="2">
@@ -2635,28 +2627,28 @@
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>33.0</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J23" s="2">
@@ -2665,16 +2657,16 @@
       <c r="K23" s="2">
         <v>2.0</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="7" t="s">
+      <c r="L23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="P23" s="2">
@@ -2682,28 +2674,28 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>34.0</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="2">
@@ -2712,16 +2704,16 @@
       <c r="K24" s="2">
         <v>2.0</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="7" t="s">
+      <c r="L24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="5" t="s">
         <v>86</v>
       </c>
       <c r="P24" s="2">
@@ -2729,28 +2721,28 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>35.0</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J25" s="2">
@@ -2759,45 +2751,45 @@
       <c r="K25" s="2">
         <v>2.0</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="7" t="s">
+      <c r="L25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="5">
         <v>191.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>36.0</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J26" s="2">
@@ -2806,45 +2798,45 @@
       <c r="K26" s="2">
         <v>2.0</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="7" t="s">
+      <c r="L26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="5">
         <v>198.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>37.0</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J27" s="2">
@@ -2853,45 +2845,45 @@
       <c r="K27" s="2">
         <v>2.0</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="7" t="s">
+      <c r="L27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="5">
         <v>191.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>38.0</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>61400.0</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="2">
@@ -2900,45 +2892,45 @@
       <c r="K28" s="2">
         <v>2.0</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="7" t="s">
+      <c r="L28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="5">
         <v>197.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>39.0</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J29" s="2">
@@ -2947,42 +2939,42 @@
       <c r="K29" s="2">
         <v>2.0</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="7" t="s">
+      <c r="L29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>40.0</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>22600.0</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="J30" s="2">
@@ -2991,45 +2983,45 @@
       <c r="K30" s="2">
         <v>2.0</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="5">
         <v>111.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>41.0</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>16900.0</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="5" t="s">
         <v>99</v>
       </c>
       <c r="J31" s="2">
@@ -3038,92 +3030,92 @@
       <c r="K31" s="2">
         <v>2.0</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="L31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>42.0</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>18000.0</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="5" t="s">
         <v>102</v>
       </c>
       <c r="J32" s="2">
         <v>5.0</v>
       </c>
-      <c r="K32" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="L32" s="8" t="s">
+      <c r="K32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>49400.0</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="5" t="s">
         <v>108</v>
       </c>
       <c r="J33" s="2">
@@ -3132,45 +3124,45 @@
       <c r="K33" s="2">
         <v>2.0</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="5">
         <v>163.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>43.0</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>17000.0</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="J34" s="2">
@@ -3179,45 +3171,45 @@
       <c r="K34" s="2">
         <v>2.0</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="5">
         <v>220.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44.0</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>68600.0</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="2">
@@ -3226,45 +3218,45 @@
       <c r="K35" s="2">
         <v>2.0</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="7" t="s">
+      <c r="L35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="5">
         <v>210.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>45.0</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>68600.0</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J36" s="2">
@@ -3273,42 +3265,42 @@
       <c r="K36" s="2">
         <v>2.0</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="7" t="s">
+      <c r="L36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="5">
         <v>200.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>46.0</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J37" s="2">
@@ -3317,45 +3309,45 @@
       <c r="K37" s="2">
         <v>2.0</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="7" t="s">
+      <c r="L37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>47.0</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>25200.0</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="5" t="s">
         <v>120</v>
       </c>
       <c r="J38" s="2">
@@ -3364,45 +3356,45 @@
       <c r="K38" s="2">
         <v>2.0</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="7" t="s">
+      <c r="L38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="5">
         <v>160.0</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>48.0</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>17600.0</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="5" t="s">
         <v>123</v>
       </c>
       <c r="J39" s="2">
@@ -3411,45 +3403,45 @@
       <c r="K39" s="2">
         <v>2.0</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="7" t="s">
+      <c r="L39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>48800.0</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="5" t="s">
         <v>128</v>
       </c>
       <c r="J40" s="2">
@@ -3458,10 +3450,10 @@
       <c r="K40" s="2">
         <v>2.0</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" s="8" t="s">
+      <c r="L40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="7" t="s">
@@ -3470,80 +3462,80 @@
       <c r="O40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="5">
         <v>155.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>49.0</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>17600.0</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="5">
         <v>5.0</v>
       </c>
       <c r="K41" s="2">
         <v>2.0</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="7" t="s">
+      <c r="L41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="5">
         <v>147.0</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>70600.0</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="5" t="s">
         <v>135</v>
       </c>
       <c r="J42" s="2">
@@ -3552,45 +3544,45 @@
       <c r="K42" s="2">
         <v>2.0</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="7" t="s">
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="5">
         <v>212.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>50.0</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>76000.0</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J43" s="2">
@@ -3599,45 +3591,45 @@
       <c r="K43" s="2">
         <v>2.0</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="7" t="s">
+      <c r="L43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="5">
         <v>223.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>53.0</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>22600.0</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J44" s="2">
@@ -3646,45 +3638,45 @@
       <c r="K44" s="2">
         <v>2.0</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="7" t="s">
+      <c r="L44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>54.0</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>96000.0</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J45" s="2">
@@ -3693,45 +3685,45 @@
       <c r="K45" s="2">
         <v>2.0</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="7" t="s">
+      <c r="L45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="5">
         <v>290.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>55.0</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>18700.0</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J46" s="2">
@@ -3740,45 +3732,45 @@
       <c r="K46" s="2">
         <v>2.0</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="7" t="s">
+      <c r="L46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>56.0</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>18700.0</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J47" s="2">
@@ -3787,45 +3779,45 @@
       <c r="K47" s="2">
         <v>2.0</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="7" t="s">
+      <c r="L47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>57.0</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>18700.0</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J48" s="2">
@@ -3834,45 +3826,45 @@
       <c r="K48" s="2">
         <v>2.0</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="7" t="s">
+      <c r="L48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>58.0</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>18700.0</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="5" t="s">
         <v>154</v>
       </c>
       <c r="J49" s="2">
@@ -3881,45 +3873,45 @@
       <c r="K49" s="2">
         <v>2.0</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="7" t="s">
+      <c r="L49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O49" s="7" t="s">
+      <c r="O49" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>59.0</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>45400.0</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J50" s="2">
@@ -3928,45 +3920,45 @@
       <c r="K50" s="2">
         <v>2.0</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="7" t="s">
+      <c r="L50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>60.0</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J51" s="2">
@@ -3975,45 +3967,45 @@
       <c r="K51" s="2">
         <v>2.0</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="7" t="s">
+      <c r="L51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>61.0</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>74600.0</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J52" s="2">
@@ -4022,45 +4014,45 @@
       <c r="K52" s="2">
         <v>2.0</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N52" s="7" t="s">
+      <c r="L52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P52" s="5">
         <v>206.0</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>62.0</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>73000.0</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J53" s="2">
@@ -4069,45 +4061,45 @@
       <c r="K53" s="2">
         <v>2.0</v>
       </c>
-      <c r="L53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="7" t="s">
+      <c r="L53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="5">
         <v>230.0</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>63.0</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>88000.0</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="5" t="s">
         <v>167</v>
       </c>
       <c r="J54" s="2">
@@ -4116,45 +4108,45 @@
       <c r="K54" s="2">
         <v>2.0</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="7" t="s">
+      <c r="L54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="7" t="s">
+      <c r="O54" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>64.0</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J55" s="2">
@@ -4163,45 +4155,45 @@
       <c r="K55" s="2">
         <v>2.0</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="7" t="s">
+      <c r="L55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>65.0</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J56" s="2">
@@ -4210,45 +4202,45 @@
       <c r="K56" s="2">
         <v>2.0</v>
       </c>
-      <c r="L56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="7" t="s">
+      <c r="L56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P56" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>66.0</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J57" s="2">
@@ -4257,45 +4249,45 @@
       <c r="K57" s="2">
         <v>2.0</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57" s="7" t="s">
+      <c r="L57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P57" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>67.0</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J58" s="2">
@@ -4304,45 +4296,45 @@
       <c r="K58" s="2">
         <v>2.0</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="7" t="s">
+      <c r="L58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>68.0</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J59" s="2">
@@ -4351,45 +4343,45 @@
       <c r="K59" s="2">
         <v>2.0</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N59" s="7" t="s">
+      <c r="L59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P59" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>69.0</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>80000.0</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="5" t="s">
         <v>181</v>
       </c>
       <c r="J60" s="2">
@@ -4398,45 +4390,45 @@
       <c r="K60" s="2">
         <v>2.0</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="7" t="s">
+      <c r="L60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="5">
         <v>250.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>70.0</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>80000.0</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="5" t="s">
         <v>181</v>
       </c>
       <c r="J61" s="2">
@@ -4445,45 +4437,45 @@
       <c r="K61" s="2">
         <v>2.0</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="7" t="s">
+      <c r="L61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="O61" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P61" s="5">
         <v>250.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>71.0</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>123000.0</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="5" t="s">
         <v>186</v>
       </c>
       <c r="J62" s="2">
@@ -4492,45 +4484,45 @@
       <c r="K62" s="2">
         <v>2.0</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="7" t="s">
+      <c r="L62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="5">
         <v>380.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>72.0</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>108000.0</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J63" s="2">
@@ -4539,42 +4531,42 @@
       <c r="K63" s="2">
         <v>2.0</v>
       </c>
-      <c r="L63" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="7" t="s">
+      <c r="L63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="5">
         <v>320.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>73.0</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="5" t="s">
         <v>190</v>
       </c>
       <c r="J64" s="2">
@@ -4583,42 +4575,42 @@
       <c r="K64" s="2">
         <v>2.0</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="7" t="s">
+      <c r="L64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>74.0</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J65" s="2">
@@ -4627,45 +4619,45 @@
       <c r="K65" s="2">
         <v>2.0</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N65" s="7" t="s">
+      <c r="L65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O65" s="7" t="s">
+      <c r="O65" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P65" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>75.0</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J66" s="2">
@@ -4674,45 +4666,45 @@
       <c r="K66" s="2">
         <v>2.0</v>
       </c>
-      <c r="L66" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="7" t="s">
+      <c r="L66" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="P66" s="8">
+      <c r="P66" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>76.0</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J67" s="2">
@@ -4721,45 +4713,45 @@
       <c r="K67" s="2">
         <v>2.0</v>
       </c>
-      <c r="L67" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N67" s="7" t="s">
+      <c r="L67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P67" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>77.0</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J68" s="2">
@@ -4768,45 +4760,45 @@
       <c r="K68" s="2">
         <v>2.0</v>
       </c>
-      <c r="L68" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N68" s="7" t="s">
+      <c r="L68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="O68" s="7" t="s">
+      <c r="O68" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P68" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>78.0</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J69" s="2">
@@ -4815,45 +4807,45 @@
       <c r="K69" s="2">
         <v>2.0</v>
       </c>
-      <c r="L69" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="7" t="s">
+      <c r="L69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O69" s="7" t="s">
+      <c r="O69" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P69" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>79.0</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J70" s="2">
@@ -4862,42 +4854,42 @@
       <c r="K70" s="2">
         <v>2.0</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N70" s="7" t="s">
+      <c r="L70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P70" s="8">
+      <c r="P70" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>80.0</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J71" s="2">
@@ -4906,45 +4898,45 @@
       <c r="K71" s="2">
         <v>2.0</v>
       </c>
-      <c r="L71" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="7" t="s">
+      <c r="L71" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="O71" s="7" t="s">
+      <c r="O71" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P71" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>81.0</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J72" s="2">
@@ -4953,42 +4945,42 @@
       <c r="K72" s="2">
         <v>2.0</v>
       </c>
-      <c r="L72" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="7" t="s">
+      <c r="L72" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="P72" s="8">
+      <c r="P72" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>82.0</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J73" s="2">
@@ -4997,45 +4989,45 @@
       <c r="K73" s="2">
         <v>2.0</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="7" t="s">
+      <c r="L73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="O73" s="7" t="s">
+      <c r="O73" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P73" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>83.0</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>70000.0</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J74" s="2">
@@ -5044,45 +5036,45 @@
       <c r="K74" s="2">
         <v>2.0</v>
       </c>
-      <c r="L74" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="7" t="s">
+      <c r="L74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O74" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P74" s="5">
         <v>220.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>84.0</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="C75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>40000.0</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="5" t="s">
         <v>210</v>
       </c>
       <c r="J75" s="2">
@@ -5091,45 +5083,45 @@
       <c r="K75" s="2">
         <v>2.0</v>
       </c>
-      <c r="L75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="7" t="s">
+      <c r="L75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="P75" s="8">
+      <c r="P75" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>85.0</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="C76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="5">
         <v>55000.0</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="2">
@@ -5138,45 +5130,45 @@
       <c r="K76" s="2">
         <v>2.0</v>
       </c>
-      <c r="L76" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="7" t="s">
+      <c r="L76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="O76" s="7" t="s">
+      <c r="O76" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>86.0</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J77" s="2">
@@ -5185,45 +5177,45 @@
       <c r="K77" s="2">
         <v>2.0</v>
       </c>
-      <c r="L77" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="7" t="s">
+      <c r="L77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="O77" s="7" t="s">
+      <c r="O77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>87.0</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="2">
@@ -5232,45 +5224,45 @@
       <c r="K78" s="2">
         <v>2.0</v>
       </c>
-      <c r="L78" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="7" t="s">
+      <c r="L78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O78" s="7" t="s">
+      <c r="O78" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>88.0</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J79" s="2">
@@ -5279,45 +5271,45 @@
       <c r="K79" s="2">
         <v>2.0</v>
       </c>
-      <c r="L79" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="7" t="s">
+      <c r="L79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="O79" s="7" t="s">
+      <c r="O79" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P79" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>89.0</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J80" s="2">
@@ -5326,45 +5318,45 @@
       <c r="K80" s="2">
         <v>2.0</v>
       </c>
-      <c r="L80" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="7" t="s">
+      <c r="L80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O80" s="7" t="s">
+      <c r="O80" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="P80" s="8">
+      <c r="P80" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>90.0</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="C81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J81" s="2">
@@ -5373,42 +5365,42 @@
       <c r="K81" s="2">
         <v>2.0</v>
       </c>
-      <c r="L81" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="7" t="s">
+      <c r="L81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P81" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>91.0</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J82" s="2">
@@ -5417,45 +5409,45 @@
       <c r="K82" s="2">
         <v>2.0</v>
       </c>
-      <c r="L82" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N82" s="7" t="s">
+      <c r="L82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="O82" s="7" t="s">
+      <c r="O82" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="P82" s="8">
+      <c r="P82" s="5">
         <v>223.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>92.0</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="C83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="5" t="s">
         <v>226</v>
       </c>
       <c r="J83" s="2">
@@ -5464,45 +5456,45 @@
       <c r="K83" s="2">
         <v>2.0</v>
       </c>
-      <c r="L83" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="7" t="s">
+      <c r="L83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="O83" s="7" t="s">
+      <c r="O83" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>93.0</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="5" t="s">
         <v>147</v>
       </c>
       <c r="J84" s="2">
@@ -5511,45 +5503,45 @@
       <c r="K84" s="2">
         <v>2.0</v>
       </c>
-      <c r="L84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="7" t="s">
+      <c r="L84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="O84" s="7" t="s">
+      <c r="O84" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="P84" s="8">
+      <c r="P84" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>94.0</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="5" t="s">
         <v>231</v>
       </c>
       <c r="J85" s="2">
@@ -5558,42 +5550,42 @@
       <c r="K85" s="2">
         <v>2.0</v>
       </c>
-      <c r="L85" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" s="7" t="s">
+      <c r="L85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="5">
         <v>240.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="7">
+      <c r="A86" s="5">
         <v>95.0</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="5" t="s">
         <v>231</v>
       </c>
       <c r="J86" s="2">
@@ -5602,42 +5594,42 @@
       <c r="K86" s="2">
         <v>2.0</v>
       </c>
-      <c r="L86" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N86" s="7" t="s">
+      <c r="L86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="P86" s="8">
+      <c r="P86" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="7">
+      <c r="A87" s="5">
         <v>96.0</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="5" t="s">
         <v>231</v>
       </c>
       <c r="J87" s="2">
@@ -5646,45 +5638,45 @@
       <c r="K87" s="2">
         <v>2.0</v>
       </c>
-      <c r="L87" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N87" s="7" t="s">
+      <c r="L87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="O87" s="7" t="s">
+      <c r="O87" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="P87" s="8">
+      <c r="P87" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="7">
+      <c r="A88" s="5">
         <v>97.0</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="5" t="s">
         <v>190</v>
       </c>
       <c r="J88" s="2">
@@ -5693,45 +5685,45 @@
       <c r="K88" s="2">
         <v>2.0</v>
       </c>
-      <c r="L88" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="7" t="s">
+      <c r="L88" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="O88" s="7" t="s">
+      <c r="O88" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="P88" s="8">
+      <c r="P88" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="7">
+      <c r="A89" s="5">
         <v>99.0</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="5" t="s">
         <v>231</v>
       </c>
       <c r="J89" s="2">
@@ -5740,42 +5732,42 @@
       <c r="K89" s="2">
         <v>2.0</v>
       </c>
-      <c r="L89" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="7" t="s">
+      <c r="L89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="P89" s="8">
+      <c r="P89" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="7">
+      <c r="A90" s="5">
         <v>100.0</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="5" t="s">
         <v>239</v>
       </c>
       <c r="J90" s="2">
@@ -5784,45 +5776,45 @@
       <c r="K90" s="2">
         <v>2.0</v>
       </c>
-      <c r="L90" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="7" t="s">
+      <c r="L90" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="O90" s="7" t="s">
+      <c r="O90" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="P90" s="8">
+      <c r="P90" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="A91" s="7">
+      <c r="A91" s="5">
         <v>101.0</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="C91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="5" t="s">
         <v>239</v>
       </c>
       <c r="J91" s="2">
@@ -5831,42 +5823,42 @@
       <c r="K91" s="2">
         <v>2.0</v>
       </c>
-      <c r="L91" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N91" s="7" t="s">
+      <c r="L91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="P91" s="8">
+      <c r="P91" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="A92" s="7">
+      <c r="A92" s="5">
         <v>102.0</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="5" t="s">
         <v>239</v>
       </c>
       <c r="J92" s="2">
@@ -5875,45 +5867,45 @@
       <c r="K92" s="2">
         <v>2.0</v>
       </c>
-      <c r="L92" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="7" t="s">
+      <c r="L92" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O92" s="7" t="s">
+      <c r="O92" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="P92" s="8">
+      <c r="P92" s="5">
         <v>120.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="7">
+      <c r="A93" s="5">
         <v>103.0</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="5" t="s">
         <v>239</v>
       </c>
       <c r="J93" s="2">
@@ -5922,45 +5914,45 @@
       <c r="K93" s="2">
         <v>2.0</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="7" t="s">
+      <c r="L93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="O93" s="7" t="s">
+      <c r="O93" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="P93" s="8">
+      <c r="P93" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="7">
+      <c r="A94" s="5">
         <v>104.0</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="5" t="s">
         <v>239</v>
       </c>
       <c r="J94" s="2">
@@ -5969,2612 +5961,2612 @@
       <c r="K94" s="2">
         <v>2.0</v>
       </c>
-      <c r="L94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M94" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="7" t="s">
+      <c r="L94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="O94" s="7" t="s">
+      <c r="O94" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="P94" s="8">
+      <c r="P94" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="7">
+      <c r="A95" s="5">
         <v>105.0</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H95" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="5">
         <v>5.0</v>
       </c>
       <c r="K95" s="2">
         <v>2.0</v>
       </c>
-      <c r="L95" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="7" t="s">
+      <c r="L95" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O95" s="7" t="s">
+      <c r="O95" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="P95" s="8">
+      <c r="P95" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="7">
+      <c r="A96" s="5">
         <v>106.0</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="5">
         <v>5.0</v>
       </c>
       <c r="K96" s="2">
         <v>2.0</v>
       </c>
-      <c r="L96" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="7" t="s">
+      <c r="L96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="O96" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="P96" s="8">
+      <c r="P96" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="7">
+      <c r="A97" s="5">
         <v>107.0</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="5">
         <v>18600.0</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="5">
         <v>5.0</v>
       </c>
       <c r="K97" s="2">
         <v>2.0</v>
       </c>
-      <c r="L97" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M97" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N97" s="7" t="s">
+      <c r="L97" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="O97" s="7" t="s">
+      <c r="O97" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P97" s="8">
+      <c r="P97" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="7">
+      <c r="A98" s="5">
         <v>110.0</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="5">
         <v>5.0</v>
       </c>
       <c r="K98" s="2">
         <v>2.0</v>
       </c>
-      <c r="L98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M98" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98" s="7" t="s">
+      <c r="L98" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P98" s="8">
+      <c r="P98" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="7">
+      <c r="A99" s="5">
         <v>111.0</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="C99" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="5">
         <v>5.0</v>
       </c>
       <c r="K99" s="2">
         <v>2.0</v>
       </c>
-      <c r="L99" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99" s="7" t="s">
+      <c r="L99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="P99" s="8">
+      <c r="P99" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="7">
+      <c r="A100" s="5">
         <v>112.0</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="C100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="5">
         <v>5.0</v>
       </c>
       <c r="K100" s="2">
         <v>2.0</v>
       </c>
-      <c r="L100" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="7" t="s">
+      <c r="L100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="P100" s="8">
+      <c r="P100" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="7">
+      <c r="A101" s="5">
         <v>113.0</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="C101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="5">
         <v>5.0</v>
       </c>
       <c r="K101" s="2">
         <v>2.0</v>
       </c>
-      <c r="L101" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M101" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" s="7" t="s">
+      <c r="L101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N101" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="P101" s="8">
+      <c r="P101" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="7">
+      <c r="A102" s="5">
         <v>114.0</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>20000.0</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="5">
         <v>5.0</v>
       </c>
       <c r="K102" s="2">
         <v>2.0</v>
       </c>
-      <c r="L102" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M102" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N102" s="7" t="s">
+      <c r="L102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N102" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="O102" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="P102" s="8">
+      <c r="P102" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="7">
+      <c r="A103" s="5">
         <v>115.0</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="5">
         <v>5.0</v>
       </c>
       <c r="K103" s="2">
         <v>2.0</v>
       </c>
-      <c r="L103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M103" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N103" s="7" t="s">
+      <c r="L103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="P103" s="8">
+      <c r="P103" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="7">
+      <c r="A104" s="5">
         <v>116.0</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="5">
         <v>5.0</v>
       </c>
       <c r="K104" s="2">
         <v>2.0</v>
       </c>
-      <c r="L104" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M104" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N104" s="7" t="s">
+      <c r="L104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N104" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="P104" s="8">
+      <c r="P104" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="7">
+      <c r="A105" s="5">
         <v>117.0</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="5">
         <v>5.0</v>
       </c>
       <c r="K105" s="2">
         <v>2.0</v>
       </c>
-      <c r="L105" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N105" s="7" t="s">
+      <c r="L105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="P105" s="8">
+      <c r="P105" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="7">
+      <c r="A106" s="5">
         <v>118.0</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="5">
         <v>5.0</v>
       </c>
       <c r="K106" s="2">
         <v>2.0</v>
       </c>
-      <c r="L106" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N106" s="7" t="s">
+      <c r="L106" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N106" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="P106" s="8">
+      <c r="P106" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="7">
+      <c r="A107" s="5">
         <v>119.0</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J107" s="8">
+      <c r="J107" s="5">
         <v>5.0</v>
       </c>
       <c r="K107" s="2">
         <v>2.0</v>
       </c>
-      <c r="L107" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M107" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107" s="7" t="s">
+      <c r="L107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N107" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="P107" s="8">
+      <c r="P107" s="5">
         <v>110.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="C108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>288000.0</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J108" s="8">
+      <c r="J108" s="5">
         <v>5.0</v>
       </c>
       <c r="K108" s="2">
         <v>2.0</v>
       </c>
-      <c r="L108" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N108" s="7" t="s">
+      <c r="L108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N108" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O108" s="7" t="s">
+      <c r="O108" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="P108" s="8">
+      <c r="P108" s="5">
         <v>570.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="5">
         <v>260000.0</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J109" s="8">
+      <c r="J109" s="5">
         <v>5.0</v>
       </c>
       <c r="K109" s="2">
         <v>2.0</v>
       </c>
-      <c r="L109" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N109" s="7" t="s">
+      <c r="L109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N109" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="O109" s="7" t="s">
+      <c r="O109" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="P109" s="8">
+      <c r="P109" s="5">
         <v>610.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="5">
         <v>300000.0</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I110" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="5">
         <v>5.0</v>
       </c>
       <c r="K110" s="2">
         <v>2.0</v>
       </c>
-      <c r="L110" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N110" s="7" t="s">
+      <c r="L110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N110" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="O110" s="7" t="s">
+      <c r="O110" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="P110" s="8">
+      <c r="P110" s="5">
         <v>787.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="C111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>240000.0</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="5">
         <v>5.0</v>
       </c>
       <c r="K111" s="2">
         <v>2.0</v>
       </c>
-      <c r="L111" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N111" s="7" t="s">
+      <c r="L111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N111" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="O111" s="7" t="s">
+      <c r="O111" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="P111" s="8">
+      <c r="P111" s="5">
         <v>480.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="C112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>288000.0</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="H112" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="5">
         <v>5.0</v>
       </c>
       <c r="K112" s="2">
         <v>2.0</v>
       </c>
-      <c r="L112" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N112" s="7" t="s">
+      <c r="L112" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N112" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="O112" s="7" t="s">
+      <c r="O112" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="P112" s="8">
+      <c r="P112" s="5">
         <v>590.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="C113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>280000.0</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H113" s="8" t="s">
+      <c r="H113" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I113" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J113" s="8">
+      <c r="J113" s="5">
         <v>5.0</v>
       </c>
       <c r="K113" s="2">
         <v>2.0</v>
       </c>
-      <c r="L113" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113" s="7" t="s">
+      <c r="L113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N113" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="O113" s="7" t="s">
+      <c r="O113" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="P113" s="8">
+      <c r="P113" s="5">
         <v>650.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="8" t="s">
+      <c r="C114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>222000.0</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="H114" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I114" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="5">
         <v>5.0</v>
       </c>
       <c r="K114" s="2">
         <v>2.0</v>
       </c>
-      <c r="L114" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N114" s="7" t="s">
+      <c r="L114" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N114" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="O114" s="7" t="s">
+      <c r="O114" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="P114" s="8">
+      <c r="P114" s="5">
         <v>510.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <v>288000.0</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J115" s="8">
+      <c r="J115" s="5">
         <v>5.0</v>
       </c>
       <c r="K115" s="2">
         <v>2.0</v>
       </c>
-      <c r="L115" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N115" s="7" t="s">
+      <c r="L115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N115" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="O115" s="7" t="s">
+      <c r="O115" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="P115" s="8">
+      <c r="P115" s="5">
         <v>640.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="8" t="s">
+      <c r="C116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <v>250000.0</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="5">
         <v>5.0</v>
       </c>
       <c r="K116" s="2">
         <v>2.0</v>
       </c>
-      <c r="L116" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M116" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N116" s="7" t="s">
+      <c r="L116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N116" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="O116" s="7" t="s">
+      <c r="O116" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="P116" s="8">
+      <c r="P116" s="5">
         <v>530.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="C117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <v>204000.0</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G117" s="8" t="s">
+      <c r="G117" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H117" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I117" s="8" t="s">
+      <c r="I117" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="J117" s="8">
+      <c r="J117" s="5">
         <v>5.0</v>
       </c>
       <c r="K117" s="2">
         <v>2.0</v>
       </c>
-      <c r="L117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N117" s="7" t="s">
+      <c r="L117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N117" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="O117" s="7" t="s">
+      <c r="O117" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="P117" s="8">
+      <c r="P117" s="5">
         <v>440.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="C118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="5">
         <v>218000.0</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H118" s="8" t="s">
+      <c r="H118" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I118" s="8" t="s">
+      <c r="I118" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="5">
         <v>5.0</v>
       </c>
       <c r="K118" s="2">
         <v>2.0</v>
       </c>
-      <c r="L118" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M118" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N118" s="7" t="s">
+      <c r="L118" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N118" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="O118" s="7" t="s">
+      <c r="O118" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="P118" s="8">
+      <c r="P118" s="5">
         <v>550.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="8" t="s">
+      <c r="C119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>170000.0</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I119" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="5">
         <v>5.0</v>
       </c>
       <c r="K119" s="2">
         <v>2.0</v>
       </c>
-      <c r="L119" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M119" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N119" s="7" t="s">
+      <c r="L119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N119" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="O119" s="7" t="s">
+      <c r="O119" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="P119" s="8">
+      <c r="P119" s="5">
         <v>450.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="C120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>282000.0</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="H120" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I120" s="8" t="s">
+      <c r="I120" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="5">
         <v>5.0</v>
       </c>
       <c r="K120" s="2">
         <v>2.0</v>
       </c>
-      <c r="L120" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N120" s="7" t="s">
+      <c r="L120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N120" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="O120" s="7" t="s">
+      <c r="O120" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="P120" s="8">
+      <c r="P120" s="5">
         <v>720.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="C121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>185000.0</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I121" s="8" t="s">
+      <c r="I121" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J121" s="5">
         <v>5.0</v>
       </c>
       <c r="K121" s="2">
         <v>2.0</v>
       </c>
-      <c r="L121" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N121" s="7" t="s">
+      <c r="L121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N121" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="O121" s="7" t="s">
+      <c r="O121" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="P121" s="8">
+      <c r="P121" s="5">
         <v>430.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="8" t="s">
+      <c r="C122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>185000.0</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="I122" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="5">
         <v>5.0</v>
       </c>
       <c r="K122" s="2">
         <v>2.0</v>
       </c>
-      <c r="L122" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N122" s="7" t="s">
+      <c r="L122" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N122" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="O122" s="7" t="s">
+      <c r="O122" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="P122" s="8">
+      <c r="P122" s="5">
         <v>510.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="8" t="s">
+      <c r="C123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>254000.0</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I123" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="5">
         <v>5.0</v>
       </c>
       <c r="K123" s="2">
         <v>2.0</v>
       </c>
-      <c r="L123" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N123" s="7" t="s">
+      <c r="L123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N123" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="O123" s="7" t="s">
+      <c r="O123" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="P123" s="8">
+      <c r="P123" s="5">
         <v>650.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>220000.0</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I124" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="J124" s="8">
+      <c r="J124" s="5">
         <v>5.0</v>
       </c>
       <c r="K124" s="2">
         <v>2.0</v>
       </c>
-      <c r="L124" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N124" s="7" t="s">
+      <c r="L124" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N124" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="O124" s="7" t="s">
+      <c r="O124" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="P124" s="8">
+      <c r="P124" s="5">
         <v>510.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="8" t="s">
+      <c r="C125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="5">
         <v>240000.0</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I125" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="5">
         <v>5.0</v>
       </c>
       <c r="K125" s="2">
         <v>2.0</v>
       </c>
-      <c r="L125" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N125" s="7" t="s">
+      <c r="L125" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N125" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="O125" s="7" t="s">
+      <c r="O125" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="P125" s="8">
+      <c r="P125" s="5">
         <v>490.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="8" t="s">
+      <c r="C126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <v>240000.0</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H126" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I126" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="5">
         <v>5.0</v>
       </c>
       <c r="K126" s="2">
         <v>2.0</v>
       </c>
-      <c r="L126" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N126" s="7" t="s">
+      <c r="L126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N126" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="O126" s="7" t="s">
+      <c r="O126" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P126" s="8">
+      <c r="P126" s="5">
         <v>650.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="8" t="s">
+      <c r="C127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="5">
         <v>301000.0</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="5">
         <v>5.0</v>
       </c>
       <c r="K127" s="2">
         <v>2.0</v>
       </c>
-      <c r="L127" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M127" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N127" s="7" t="s">
+      <c r="L127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N127" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="O127" s="7" t="s">
+      <c r="O127" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="P127" s="8">
+      <c r="P127" s="5">
         <v>690.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="C128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <v>260000.0</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I128" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="5">
         <v>5.0</v>
       </c>
       <c r="K128" s="2">
         <v>2.0</v>
       </c>
-      <c r="L128" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N128" s="7" t="s">
+      <c r="L128" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N128" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="P128" s="8">
+      <c r="P128" s="5">
         <v>635.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="8" t="s">
+      <c r="C129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="5">
         <v>30000.0</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H129" s="8" t="s">
+      <c r="H129" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I129" s="8" t="s">
+      <c r="I129" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="5">
         <v>5.0</v>
       </c>
       <c r="K129" s="2">
         <v>2.0</v>
       </c>
-      <c r="L129" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M129" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N129" s="7" t="s">
+      <c r="L129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N129" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="O129" s="7" t="s">
+      <c r="O129" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="P129" s="8">
+      <c r="P129" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="C130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G130" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="H130" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="I130" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="5">
         <v>5.0</v>
       </c>
       <c r="K130" s="2">
         <v>2.0</v>
       </c>
-      <c r="L130" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M130" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N130" s="7" t="s">
+      <c r="L130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N130" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O130" s="7" t="s">
+      <c r="O130" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="P130" s="8">
+      <c r="P130" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G131" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I131" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="5">
         <v>5.0</v>
       </c>
       <c r="K131" s="2">
         <v>2.0</v>
       </c>
-      <c r="L131" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M131" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N131" s="7" t="s">
+      <c r="L131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N131" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="O131" s="7" t="s">
+      <c r="O131" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="P131" s="8">
+      <c r="P131" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="C132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H132" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I132" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="5">
         <v>5.0</v>
       </c>
       <c r="K132" s="2">
         <v>2.0</v>
       </c>
-      <c r="L132" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M132" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N132" s="7" t="s">
+      <c r="L132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N132" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="O132" s="7" t="s">
+      <c r="O132" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="P132" s="8">
+      <c r="P132" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="C133" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <v>37000.0</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I133" s="8" t="s">
+      <c r="I133" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="5">
         <v>5.0</v>
       </c>
       <c r="K133" s="2">
         <v>2.0</v>
       </c>
-      <c r="L133" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M133" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N133" s="7" t="s">
+      <c r="L133" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N133" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="O133" s="7" t="s">
+      <c r="O133" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="P133" s="8">
+      <c r="P133" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="C134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="I134" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="5">
         <v>5.0</v>
       </c>
       <c r="K134" s="2">
         <v>2.0</v>
       </c>
-      <c r="L134" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N134" s="7" t="s">
+      <c r="L134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N134" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="O134" s="7" t="s">
+      <c r="O134" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="P134" s="8">
+      <c r="P134" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="8" t="s">
+      <c r="C135" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I135" s="8" t="s">
+      <c r="I135" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="5">
         <v>5.0</v>
       </c>
       <c r="K135" s="2">
         <v>2.0</v>
       </c>
-      <c r="L135" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M135" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N135" s="7" t="s">
+      <c r="L135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N135" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="O135" s="7" t="s">
+      <c r="O135" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="P135" s="8">
+      <c r="P135" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="8" t="s">
+      <c r="C136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G136" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H136" s="8" t="s">
+      <c r="H136" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I136" s="8" t="s">
+      <c r="I136" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="5">
         <v>5.0</v>
       </c>
       <c r="K136" s="2">
         <v>2.0</v>
       </c>
-      <c r="L136" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M136" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N136" s="7" t="s">
+      <c r="L136" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N136" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="O136" s="7" t="s">
+      <c r="O136" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="P136" s="8">
+      <c r="P136" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="C137" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G137" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="I137" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J137" s="8">
+      <c r="J137" s="5">
         <v>5.0</v>
       </c>
       <c r="K137" s="2">
         <v>2.0</v>
       </c>
-      <c r="L137" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M137" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N137" s="7" t="s">
+      <c r="L137" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N137" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="O137" s="7" t="s">
+      <c r="O137" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="P137" s="8">
+      <c r="P137" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="C138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G138" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I138" s="8" t="s">
+      <c r="I138" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="5">
         <v>5.0</v>
       </c>
       <c r="K138" s="2">
         <v>2.0</v>
       </c>
-      <c r="L138" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M138" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N138" s="7" t="s">
+      <c r="L138" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N138" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="O138" s="7" t="s">
+      <c r="O138" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="P138" s="8">
+      <c r="P138" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="C139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G139" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H139" s="8" t="s">
+      <c r="H139" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I139" s="8" t="s">
+      <c r="I139" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="5">
         <v>5.0</v>
       </c>
       <c r="K139" s="2">
         <v>2.0</v>
       </c>
-      <c r="L139" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M139" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N139" s="7" t="s">
+      <c r="L139" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N139" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="O139" s="7" t="s">
+      <c r="O139" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="P139" s="8">
+      <c r="P139" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="8" t="s">
+      <c r="C140" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G140" s="8" t="s">
+      <c r="G140" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H140" s="8" t="s">
+      <c r="H140" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I140" s="8" t="s">
+      <c r="I140" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="5">
         <v>5.0</v>
       </c>
       <c r="K140" s="2">
         <v>2.0</v>
       </c>
-      <c r="L140" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M140" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N140" s="7" t="s">
+      <c r="L140" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N140" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="P140" s="8">
+      <c r="P140" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="8" t="s">
+      <c r="C141" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G141" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I141" s="8" t="s">
+      <c r="I141" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="5">
         <v>5.0</v>
       </c>
       <c r="K141" s="2">
         <v>2.0</v>
       </c>
-      <c r="L141" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M141" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N141" s="7" t="s">
+      <c r="L141" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N141" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="O141" s="7" t="s">
+      <c r="O141" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="P141" s="8">
+      <c r="P141" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="C142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="5">
         <v>37000.0</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I142" s="8" t="s">
+      <c r="I142" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="5">
         <v>5.0</v>
       </c>
       <c r="K142" s="2">
         <v>2.0</v>
       </c>
-      <c r="L142" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M142" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N142" s="7" t="s">
+      <c r="L142" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N142" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="O142" s="7" t="s">
+      <c r="O142" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="P142" s="8">
+      <c r="P142" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="C143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I143" s="8" t="s">
+      <c r="I143" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="5">
         <v>5.0</v>
       </c>
       <c r="K143" s="2">
         <v>2.0</v>
       </c>
-      <c r="L143" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M143" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N143" s="7" t="s">
+      <c r="L143" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N143" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="O143" s="7" t="s">
+      <c r="O143" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="P143" s="8">
+      <c r="P143" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="C144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G144" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I144" s="8" t="s">
+      <c r="I144" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="5">
         <v>5.0</v>
       </c>
       <c r="K144" s="2">
         <v>2.0</v>
       </c>
-      <c r="L144" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M144" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N144" s="7" t="s">
+      <c r="L144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N144" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="O144" s="7" t="s">
+      <c r="O144" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="P144" s="8">
+      <c r="P144" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="8" t="s">
+      <c r="C145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="5">
         <v>37000.0</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I145" s="8" t="s">
+      <c r="I145" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J145" s="8">
+      <c r="J145" s="5">
         <v>5.0</v>
       </c>
       <c r="K145" s="2">
         <v>2.0</v>
       </c>
-      <c r="L145" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M145" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N145" s="7" t="s">
+      <c r="L145" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N145" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="O145" s="7" t="s">
+      <c r="O145" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="P145" s="8">
+      <c r="P145" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="8" t="s">
+      <c r="C146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G146" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H146" s="8" t="s">
+      <c r="H146" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I146" s="8" t="s">
+      <c r="I146" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J146" s="8">
+      <c r="J146" s="5">
         <v>5.0</v>
       </c>
       <c r="K146" s="2">
         <v>2.0</v>
       </c>
-      <c r="L146" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M146" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N146" s="7" t="s">
+      <c r="L146" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N146" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="O146" s="7" t="s">
+      <c r="O146" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="P146" s="8">
+      <c r="P146" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="8" t="s">
+      <c r="C147" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="G147" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H147" s="8" t="s">
+      <c r="H147" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I147" s="8" t="s">
+      <c r="I147" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J147" s="8">
+      <c r="J147" s="5">
         <v>5.0</v>
       </c>
       <c r="K147" s="2">
         <v>2.0</v>
       </c>
-      <c r="L147" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M147" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N147" s="7" t="s">
+      <c r="L147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N147" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="O147" s="7" t="s">
+      <c r="O147" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="P147" s="8">
+      <c r="P147" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="8" t="s">
+      <c r="C148" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="5">
         <v>37000.0</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="G148" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H148" s="8" t="s">
+      <c r="H148" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I148" s="8" t="s">
+      <c r="I148" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J148" s="8">
+      <c r="J148" s="5">
         <v>5.0</v>
       </c>
       <c r="K148" s="2">
         <v>2.0</v>
       </c>
-      <c r="L148" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M148" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N148" s="7" t="s">
+      <c r="L148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N148" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="P148" s="8">
+      <c r="P148" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="8" t="s">
+      <c r="C149" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="5">
         <v>37000.0</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="G149" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I149" s="8" t="s">
+      <c r="I149" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J149" s="8">
+      <c r="J149" s="5">
         <v>5.0</v>
       </c>
       <c r="K149" s="2">
         <v>2.0</v>
       </c>
-      <c r="L149" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M149" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N149" s="7" t="s">
+      <c r="L149" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N149" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="P149" s="8">
+      <c r="P149" s="5">
         <v>150.0</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="8" t="s">
+      <c r="C150" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="5">
         <v>33000.0</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G150" s="8" t="s">
+      <c r="G150" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H150" s="8" t="s">
+      <c r="H150" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="I150" s="8" t="s">
+      <c r="I150" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="5">
         <v>5.0</v>
       </c>
       <c r="K150" s="2">
         <v>2.0</v>
       </c>
-      <c r="L150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M150" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N150" s="7" t="s">
+      <c r="L150" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N150" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="O150" s="7" t="s">
+      <c r="O150" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="P150" s="8">
+      <c r="P150" s="5">
         <v>150.0</v>
       </c>
     </row>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -340,10 +340,10 @@
     <t>1100*600*50,1100*600*70</t>
   </si>
   <si>
-    <t>42Е.jpg</t>
-  </si>
-  <si>
-    <t>42Е-1.jpg,42Е-2.jpg,42Е-3.jpg</t>
+    <t>42E.jpg</t>
+  </si>
+  <si>
+    <t>42E-1.jpg,42E-2.jpg,42E-3.jpg</t>
   </si>
   <si>
     <t>43.jpg</t>
@@ -421,10 +421,10 @@
     <t>1100*500*70</t>
   </si>
   <si>
-    <t>49Е.jpg</t>
-  </si>
-  <si>
-    <t>49Е-1.jpg</t>
+    <t>49E.jpg</t>
+  </si>
+  <si>
+    <t>49E-1.jpg</t>
   </si>
   <si>
     <t>1100*550*70</t>
@@ -1343,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1358,6 +1358,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3130,10 +3133,10 @@
       <c r="M33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="8" t="s">
         <v>110</v>
       </c>
       <c r="P33" s="5">
@@ -3550,10 +3553,10 @@
       <c r="M42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="P42" s="5">

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -58,16 +58,16 @@
     <t>Дополнительнын изображения 14</t>
   </si>
   <si>
-    <t>Вес 15</t>
+    <t>Bес 15</t>
   </si>
   <si>
     <t>Новинка 16</t>
   </si>
   <si>
-    <t>Вид картинки 17</t>
-  </si>
-  <si>
-    <t>В каталоге 18</t>
+    <t>Bид картинки 17</t>
+  </si>
+  <si>
+    <t>B каталоге 18</t>
   </si>
   <si>
     <t>Сортировка 19</t>
@@ -76,7 +76,7 @@
     <t>Slug 20</t>
   </si>
   <si>
-    <t>Ваза 1</t>
+    <t>Bаза 1</t>
   </si>
   <si>
     <t>Сопутствующие товары</t>
@@ -244,7 +244,7 @@
     <t>shar-4-4</t>
   </si>
   <si>
-    <t>Ваза 2</t>
+    <t>Bаза 2</t>
   </si>
   <si>
     <t>39160295.jpg</t>
@@ -256,7 +256,7 @@
     <t>vaza-2-2</t>
   </si>
   <si>
-    <t>Ваза</t>
+    <t>Bаза</t>
   </si>
   <si>
     <t>24364006.jpg</t>
@@ -268,7 +268,7 @@
     <t>vaza-5</t>
   </si>
   <si>
-    <t>Ваза 4</t>
+    <t>Bаза 4</t>
   </si>
   <si>
     <t>44657_347431770c91acfa66668f816b15c843.jpg</t>
@@ -280,7 +280,7 @@
     <t>vaza-4</t>
   </si>
   <si>
-    <t>Ваза 3</t>
+    <t>Bаза 3</t>
   </si>
   <si>
     <t>166b6005ef0e22f1f7403f0a24f92873.jpg</t>
@@ -292,7 +292,7 @@
     <t>vaza-3-3</t>
   </si>
   <si>
-    <t>Ваза 6</t>
+    <t>Bаза 6</t>
   </si>
   <si>
     <t>97c28bd0b2249b7d740965fe503f9ec1-600x600.jpg</t>
@@ -316,7 +316,7 @@
     <t>lampada-6-6</t>
   </si>
   <si>
-    <t>Ваза-5</t>
+    <t>Bаза-5</t>
   </si>
   <si>
     <t>6_dSfkoKU.png</t>
@@ -976,7 +976,7 @@
     <t>5.32</t>
   </si>
   <si>
-    <t>42Е.jpg</t>
+    <t>42E.jpg</t>
   </si>
   <si>
     <t>5.33</t>
@@ -1021,7 +1021,7 @@
     <t>5.39</t>
   </si>
   <si>
-    <t>48Е.jpg</t>
+    <t>48E.jpg</t>
   </si>
   <si>
     <t>5.40</t>
@@ -1036,7 +1036,7 @@
     <t>5.41</t>
   </si>
   <si>
-    <t>49Е.jpg</t>
+    <t>49E.jpg</t>
   </si>
   <si>
     <t>5.42</t>
@@ -1471,7 +1471,7 @@
     <t>126.jpg</t>
   </si>
   <si>
-    <t>1Э</t>
+    <t>1E</t>
   </si>
   <si>
     <t>Элитные модели</t>
@@ -1480,190 +1480,190 @@
     <t>5.114</t>
   </si>
   <si>
-    <t>1Э.jpg</t>
-  </si>
-  <si>
-    <t>2Э</t>
+    <t>1E.jpg</t>
+  </si>
+  <si>
+    <t>2E</t>
   </si>
   <si>
     <t>5.115</t>
   </si>
   <si>
-    <t>2Э.jpg</t>
-  </si>
-  <si>
-    <t>3Э</t>
+    <t>2E.jpg</t>
+  </si>
+  <si>
+    <t>3E</t>
   </si>
   <si>
     <t>5.116</t>
   </si>
   <si>
-    <t>3Э.jpg</t>
-  </si>
-  <si>
-    <t>4Э</t>
+    <t>3E.jpg</t>
+  </si>
+  <si>
+    <t>4E</t>
   </si>
   <si>
     <t>5.117</t>
   </si>
   <si>
-    <t>4Э.jpg</t>
-  </si>
-  <si>
-    <t>5Э</t>
+    <t>4E.jpg</t>
+  </si>
+  <si>
+    <t>5E</t>
   </si>
   <si>
     <t>5.118</t>
   </si>
   <si>
-    <t>5Э.jpg</t>
-  </si>
-  <si>
-    <t>6Э</t>
+    <t>5E.jpg</t>
+  </si>
+  <si>
+    <t>6E</t>
   </si>
   <si>
     <t>5.119</t>
   </si>
   <si>
-    <t>6Э.jpg</t>
-  </si>
-  <si>
-    <t>7Э</t>
+    <t>6E.jpg</t>
+  </si>
+  <si>
+    <t>7E</t>
   </si>
   <si>
     <t>5.120</t>
   </si>
   <si>
-    <t>7Э.jpg</t>
-  </si>
-  <si>
-    <t>9Э</t>
+    <t>7E.jpg</t>
+  </si>
+  <si>
+    <t>9E</t>
   </si>
   <si>
     <t>5.121</t>
   </si>
   <si>
-    <t>9Э.jpg</t>
-  </si>
-  <si>
-    <t>10Э</t>
+    <t>9E.jpg</t>
+  </si>
+  <si>
+    <t>10E</t>
   </si>
   <si>
     <t>5.122</t>
   </si>
   <si>
-    <t>10Э.jpg</t>
-  </si>
-  <si>
-    <t>11Э</t>
+    <t>10E.jpg</t>
+  </si>
+  <si>
+    <t>11E</t>
   </si>
   <si>
     <t>5.123</t>
   </si>
   <si>
-    <t>11Э.jpg</t>
-  </si>
-  <si>
-    <t>12Э</t>
+    <t>11E.jpg</t>
+  </si>
+  <si>
+    <t>12E</t>
   </si>
   <si>
     <t>5.124</t>
   </si>
   <si>
-    <t>12Э.jpg</t>
-  </si>
-  <si>
-    <t>13Э</t>
+    <t>12E.jpg</t>
+  </si>
+  <si>
+    <t>13E</t>
   </si>
   <si>
     <t>5.125</t>
   </si>
   <si>
-    <t>13Э.jpg</t>
-  </si>
-  <si>
-    <t>14Э</t>
+    <t>13E.jpg</t>
+  </si>
+  <si>
+    <t>14E</t>
   </si>
   <si>
     <t>5.126</t>
   </si>
   <si>
-    <t>14Э.jpg</t>
-  </si>
-  <si>
-    <t>16Э</t>
+    <t>14E.jpg</t>
+  </si>
+  <si>
+    <t>16E</t>
   </si>
   <si>
     <t>5.127</t>
   </si>
   <si>
-    <t>16Э.jpg</t>
-  </si>
-  <si>
-    <t>17Э</t>
+    <t>16E.jpg</t>
+  </si>
+  <si>
+    <t>17E</t>
   </si>
   <si>
     <t>5.128</t>
   </si>
   <si>
-    <t>17Э.jpg</t>
-  </si>
-  <si>
-    <t>18Э</t>
+    <t>17E.jpg</t>
+  </si>
+  <si>
+    <t>18E</t>
   </si>
   <si>
     <t>5.129</t>
   </si>
   <si>
-    <t>18Э.jpg</t>
-  </si>
-  <si>
-    <t>19Э</t>
+    <t>18E.jpg</t>
+  </si>
+  <si>
+    <t>19E</t>
   </si>
   <si>
     <t>5.130</t>
   </si>
   <si>
-    <t>19Э.jpg</t>
-  </si>
-  <si>
-    <t>21Э</t>
+    <t>19E.jpg</t>
+  </si>
+  <si>
+    <t>21E</t>
   </si>
   <si>
     <t>5.131</t>
   </si>
   <si>
-    <t>21Э.jpg</t>
-  </si>
-  <si>
-    <t>22Э</t>
+    <t>21E.jpg</t>
+  </si>
+  <si>
+    <t>22E</t>
   </si>
   <si>
     <t>5.132</t>
   </si>
   <si>
-    <t>22Э.jpg</t>
-  </si>
-  <si>
-    <t>24Э</t>
+    <t>22E.jpg</t>
+  </si>
+  <si>
+    <t>24E</t>
   </si>
   <si>
     <t>5.133</t>
   </si>
   <si>
-    <t>24Э.jpg</t>
-  </si>
-  <si>
-    <t>25Э</t>
+    <t>24E.jpg</t>
+  </si>
+  <si>
+    <t>25E</t>
   </si>
   <si>
     <t>5.134</t>
   </si>
   <si>
-    <t>25Э.jpg</t>
-  </si>
-  <si>
-    <t>10В</t>
+    <t>25E.jpg</t>
+  </si>
+  <si>
+    <t>10B</t>
   </si>
   <si>
     <t>Комбинированые модели</t>
@@ -1672,196 +1672,196 @@
     <t>5.135</t>
   </si>
   <si>
-    <t>10В.jpg</t>
-  </si>
-  <si>
-    <t>11В</t>
+    <t>10B.jpg</t>
+  </si>
+  <si>
+    <t>11B</t>
   </si>
   <si>
     <t>5.136</t>
   </si>
   <si>
-    <t>11В.jpg</t>
-  </si>
-  <si>
-    <t>14В</t>
+    <t>11B.jpg</t>
+  </si>
+  <si>
+    <t>14B</t>
   </si>
   <si>
     <t>5.137</t>
   </si>
   <si>
-    <t>14В.jpg</t>
-  </si>
-  <si>
-    <t>15В</t>
+    <t>14B.jpg</t>
+  </si>
+  <si>
+    <t>15B</t>
   </si>
   <si>
     <t>5.138</t>
   </si>
   <si>
-    <t>15В.jpg</t>
-  </si>
-  <si>
-    <t>17В</t>
+    <t>15B.jpg</t>
+  </si>
+  <si>
+    <t>17B</t>
   </si>
   <si>
     <t>5.139</t>
   </si>
   <si>
-    <t>17В.jpg</t>
-  </si>
-  <si>
-    <t>18В</t>
+    <t>17B.jpg</t>
+  </si>
+  <si>
+    <t>18B</t>
   </si>
   <si>
     <t>5.140</t>
   </si>
   <si>
-    <t>18В.jpg</t>
-  </si>
-  <si>
-    <t>19В</t>
+    <t>18B.jpg</t>
+  </si>
+  <si>
+    <t>19B</t>
   </si>
   <si>
     <t>5.141</t>
   </si>
   <si>
-    <t>19В.jpg</t>
-  </si>
-  <si>
-    <t>21В</t>
+    <t>19B.jpg</t>
+  </si>
+  <si>
+    <t>21B</t>
   </si>
   <si>
     <t>5.142</t>
   </si>
   <si>
-    <t>21В.jpg</t>
-  </si>
-  <si>
-    <t>22В</t>
+    <t>21B.jpg</t>
+  </si>
+  <si>
+    <t>22B</t>
   </si>
   <si>
     <t>5.143</t>
   </si>
   <si>
-    <t>22В.jpg</t>
-  </si>
-  <si>
-    <t>23В</t>
+    <t>22B.jpg</t>
+  </si>
+  <si>
+    <t>23B</t>
   </si>
   <si>
     <t>5.144</t>
   </si>
   <si>
-    <t>23В.jpg</t>
-  </si>
-  <si>
-    <t>29В</t>
+    <t>23B.jpg</t>
+  </si>
+  <si>
+    <t>29B</t>
   </si>
   <si>
     <t>5.145</t>
   </si>
   <si>
-    <t>29В.jpg</t>
-  </si>
-  <si>
-    <t>41В</t>
+    <t>29B.jpg</t>
+  </si>
+  <si>
+    <t>41B</t>
   </si>
   <si>
     <t>5.146</t>
   </si>
   <si>
-    <t>41В.jpg</t>
-  </si>
-  <si>
-    <t>42В</t>
+    <t>41B.jpg</t>
+  </si>
+  <si>
+    <t>42B</t>
   </si>
   <si>
     <t>5.147</t>
   </si>
   <si>
-    <t>42В.jpg</t>
-  </si>
-  <si>
-    <t>46В</t>
+    <t>42B.jpg</t>
+  </si>
+  <si>
+    <t>46B</t>
   </si>
   <si>
     <t>5.148</t>
   </si>
   <si>
-    <t>46В.jpg</t>
-  </si>
-  <si>
-    <t>56В</t>
+    <t>46B.jpg</t>
+  </si>
+  <si>
+    <t>56B</t>
   </si>
   <si>
     <t>5.149</t>
   </si>
   <si>
-    <t>56В.jpg</t>
-  </si>
-  <si>
-    <t>58В</t>
+    <t>56B.jpg</t>
+  </si>
+  <si>
+    <t>58B</t>
   </si>
   <si>
     <t>5.150</t>
   </si>
   <si>
-    <t>58В.jpg</t>
-  </si>
-  <si>
-    <t>65В</t>
+    <t>58B.jpg</t>
+  </si>
+  <si>
+    <t>65B</t>
   </si>
   <si>
     <t>5.151</t>
   </si>
   <si>
-    <t>65В.jpg</t>
-  </si>
-  <si>
-    <t>81В</t>
+    <t>65B.jpg</t>
+  </si>
+  <si>
+    <t>81B</t>
   </si>
   <si>
     <t>5.152</t>
   </si>
   <si>
-    <t>81В.jpg</t>
-  </si>
-  <si>
-    <t>82В</t>
+    <t>81B.jpg</t>
+  </si>
+  <si>
+    <t>82B</t>
   </si>
   <si>
     <t>5.153</t>
   </si>
   <si>
-    <t>82В.jpg</t>
-  </si>
-  <si>
-    <t>86В</t>
+    <t>82B.jpg</t>
+  </si>
+  <si>
+    <t>86B</t>
   </si>
   <si>
     <t>5.154</t>
   </si>
   <si>
-    <t>86В.jpg</t>
-  </si>
-  <si>
-    <t>87В</t>
+    <t>86B.jpg</t>
+  </si>
+  <si>
+    <t>87B</t>
   </si>
   <si>
     <t>5.155</t>
   </si>
   <si>
-    <t>87В.jpg</t>
-  </si>
-  <si>
-    <t>110В</t>
+    <t>87B.jpg</t>
+  </si>
+  <si>
+    <t>110B</t>
   </si>
   <si>
     <t>5.156</t>
   </si>
   <si>
-    <t>110В.jpg</t>
+    <t>110B.jpg</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1963,6 +1963,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2277,7 +2280,7 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2903,7 +2906,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2951,7 +2954,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2999,7 +3002,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3047,7 +3050,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3095,7 +3098,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3191,7 +3194,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6604,7 +6607,7 @@
       <c r="M89" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N89" s="15" t="s">
+      <c r="N89" s="16" t="s">
         <v>321</v>
       </c>
       <c r="O89" s="9"/>
@@ -6968,7 +6971,7 @@
       <c r="M96" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N96" s="15" t="s">
+      <c r="N96" s="16" t="s">
         <v>336</v>
       </c>
       <c r="O96" s="9"/>
@@ -7072,7 +7075,7 @@
       <c r="M98" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N98" s="15" t="s">
+      <c r="N98" s="16" t="s">
         <v>341</v>
       </c>
       <c r="O98" s="9"/>
@@ -10058,16 +10061,16 @@
       <c r="U155" s="7"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="16">
+      <c r="A156" s="17">
         <v>112.0</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E156" s="16">
+      <c r="E156" s="17">
         <v>20000.0</v>
       </c>
       <c r="F156" s="14" t="s">
@@ -10088,7 +10091,7 @@
       <c r="N156" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="P156" s="16">
+      <c r="P156" s="17">
         <v>110.0</v>
       </c>
       <c r="Q156" s="7" t="s">
@@ -10106,16 +10109,16 @@
       <c r="U156" s="7"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="16">
+      <c r="A157" s="17">
         <v>113.0</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E157" s="16">
+      <c r="E157" s="17">
         <v>20000.0</v>
       </c>
       <c r="F157" s="14" t="s">
@@ -10136,7 +10139,7 @@
       <c r="N157" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="P157" s="16">
+      <c r="P157" s="17">
         <v>110.0</v>
       </c>
       <c r="Q157" s="7" t="s">
@@ -10154,16 +10157,16 @@
       <c r="U157" s="7"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="16">
+      <c r="A158" s="17">
         <v>114.0</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="17">
         <v>20000.0</v>
       </c>
       <c r="F158" s="14" t="s">
@@ -10184,7 +10187,7 @@
       <c r="N158" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="P158" s="16">
+      <c r="P158" s="17">
         <v>110.0</v>
       </c>
       <c r="Q158" s="7" t="s">
@@ -10202,16 +10205,16 @@
       <c r="U158" s="7"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="16">
+      <c r="A159" s="17">
         <v>115.0</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="17">
         <v>30000.0</v>
       </c>
       <c r="F159" s="14" t="s">
@@ -10232,7 +10235,7 @@
       <c r="N159" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="P159" s="16">
+      <c r="P159" s="17">
         <v>110.0</v>
       </c>
       <c r="Q159" s="7" t="s">
@@ -10250,16 +10253,16 @@
       <c r="U159" s="7"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="16">
+      <c r="A160" s="17">
         <v>116.0</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="17">
         <v>30000.0</v>
       </c>
       <c r="F160" s="14" t="s">
@@ -10280,7 +10283,7 @@
       <c r="N160" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="P160" s="16">
+      <c r="P160" s="17">
         <v>110.0</v>
       </c>
       <c r="Q160" s="7" t="s">
@@ -10298,16 +10301,16 @@
       <c r="U160" s="7"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="16">
+      <c r="A161" s="17">
         <v>117.0</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E161" s="16">
+      <c r="E161" s="17">
         <v>30000.0</v>
       </c>
       <c r="F161" s="14" t="s">
@@ -10328,7 +10331,7 @@
       <c r="N161" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="P161" s="16">
+      <c r="P161" s="17">
         <v>110.0</v>
       </c>
       <c r="Q161" s="7" t="s">
@@ -10346,16 +10349,16 @@
       <c r="U161" s="7"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="16">
+      <c r="A162" s="17">
         <v>118.0</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="17">
         <v>30000.0</v>
       </c>
       <c r="F162" s="14" t="s">
@@ -10376,7 +10379,7 @@
       <c r="N162" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="P162" s="16">
+      <c r="P162" s="17">
         <v>110.0</v>
       </c>
       <c r="Q162" s="7" t="s">
@@ -10394,16 +10397,16 @@
       <c r="U162" s="7"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="16">
+      <c r="A163" s="17">
         <v>119.0</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="17">
         <v>30000.0</v>
       </c>
       <c r="F163" s="14" t="s">
@@ -10424,7 +10427,7 @@
       <c r="N163" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="P163" s="16">
+      <c r="P163" s="17">
         <v>110.0</v>
       </c>
       <c r="Q163" s="7" t="s">
@@ -10442,16 +10445,16 @@
       <c r="U163" s="7"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="16">
+      <c r="A164" s="17">
         <v>120.0</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E164" s="16">
+      <c r="E164" s="17">
         <v>30000.0</v>
       </c>
       <c r="F164" s="14" t="s">
@@ -10472,7 +10475,7 @@
       <c r="N164" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="P164" s="16">
+      <c r="P164" s="17">
         <v>110.0</v>
       </c>
       <c r="Q164" s="7" t="s">
@@ -10490,16 +10493,16 @@
       <c r="U164" s="7"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="16">
+      <c r="A165" s="17">
         <v>121.0</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="17">
         <v>30000.0</v>
       </c>
       <c r="F165" s="14" t="s">
@@ -10520,7 +10523,7 @@
       <c r="N165" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="P165" s="16">
+      <c r="P165" s="17">
         <v>110.0</v>
       </c>
       <c r="Q165" s="7" t="s">
@@ -10538,16 +10541,16 @@
       <c r="U165" s="7"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="16">
+      <c r="A166" s="17">
         <v>122.0</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="17">
         <v>30000.0</v>
       </c>
       <c r="F166" s="14" t="s">
@@ -10568,7 +10571,7 @@
       <c r="N166" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="P166" s="16">
+      <c r="P166" s="17">
         <v>110.0</v>
       </c>
       <c r="Q166" s="7" t="s">
@@ -10586,16 +10589,16 @@
       <c r="U166" s="7"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="16">
+      <c r="A167" s="17">
         <v>123.0</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E167" s="16">
+      <c r="E167" s="17">
         <v>30000.0</v>
       </c>
       <c r="F167" s="14" t="s">
@@ -10616,7 +10619,7 @@
       <c r="N167" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="P167" s="16">
+      <c r="P167" s="17">
         <v>110.0</v>
       </c>
       <c r="Q167" s="7" t="s">
@@ -10634,16 +10637,16 @@
       <c r="U167" s="7"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="16">
+      <c r="A168" s="17">
         <v>124.0</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E168" s="16">
+      <c r="E168" s="17">
         <v>30000.0</v>
       </c>
       <c r="F168" s="14" t="s">
@@ -10664,7 +10667,7 @@
       <c r="N168" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="P168" s="16">
+      <c r="P168" s="17">
         <v>110.0</v>
       </c>
       <c r="Q168" s="7" t="s">
@@ -10682,16 +10685,16 @@
       <c r="U168" s="7"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="16">
+      <c r="A169" s="17">
         <v>125.0</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E169" s="16">
+      <c r="E169" s="17">
         <v>30000.0</v>
       </c>
       <c r="F169" s="14" t="s">
@@ -10712,7 +10715,7 @@
       <c r="N169" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="P169" s="16">
+      <c r="P169" s="17">
         <v>150.0</v>
       </c>
       <c r="Q169" s="7" t="s">
@@ -10730,16 +10733,16 @@
       <c r="U169" s="7"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="16">
+      <c r="A170" s="17">
         <v>126.0</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="17">
         <v>30000.0</v>
       </c>
       <c r="F170" s="14" t="s">
@@ -10760,7 +10763,7 @@
       <c r="N170" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="P170" s="16">
+      <c r="P170" s="17">
         <v>150.0</v>
       </c>
       <c r="Q170" s="7" t="s">
@@ -10778,16 +10781,16 @@
       <c r="U170" s="7"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="17">
         <v>288000.0</v>
       </c>
       <c r="F171" s="14" t="s">
@@ -10805,10 +10808,10 @@
       <c r="M171" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N171" s="15" t="s">
+      <c r="N171" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="P171" s="16">
+      <c r="P171" s="17">
         <v>570.0</v>
       </c>
       <c r="Q171" s="7" t="s">
@@ -10826,16 +10829,16 @@
       <c r="U171" s="7"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="17">
         <v>260000.0</v>
       </c>
       <c r="F172" s="14" t="s">
@@ -10853,10 +10856,10 @@
       <c r="M172" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N172" s="15" t="s">
+      <c r="N172" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="P172" s="16">
+      <c r="P172" s="17">
         <v>610.0</v>
       </c>
       <c r="Q172" s="7" t="s">
@@ -10874,16 +10877,16 @@
       <c r="U172" s="7"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="17">
         <v>300000.0</v>
       </c>
       <c r="F173" s="14" t="s">
@@ -10901,10 +10904,10 @@
       <c r="M173" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N173" s="15" t="s">
+      <c r="N173" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="P173" s="16">
+      <c r="P173" s="17">
         <v>787.0</v>
       </c>
       <c r="Q173" s="7" t="s">
@@ -10922,16 +10925,16 @@
       <c r="U173" s="7"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="17">
         <v>240000.0</v>
       </c>
       <c r="F174" s="14" t="s">
@@ -10949,10 +10952,10 @@
       <c r="M174" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N174" s="15" t="s">
+      <c r="N174" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="P174" s="16">
+      <c r="P174" s="17">
         <v>480.0</v>
       </c>
       <c r="Q174" s="7" t="s">
@@ -10970,16 +10973,16 @@
       <c r="U174" s="7"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="17">
         <v>288000.0</v>
       </c>
       <c r="F175" s="14" t="s">
@@ -10997,10 +11000,10 @@
       <c r="M175" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N175" s="15" t="s">
+      <c r="N175" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="P175" s="16">
+      <c r="P175" s="17">
         <v>590.0</v>
       </c>
       <c r="Q175" s="7" t="s">
@@ -11018,16 +11021,16 @@
       <c r="U175" s="7"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="17">
         <v>280000.0</v>
       </c>
       <c r="F176" s="14" t="s">
@@ -11045,10 +11048,10 @@
       <c r="M176" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N176" s="15" t="s">
+      <c r="N176" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="P176" s="16">
+      <c r="P176" s="17">
         <v>650.0</v>
       </c>
       <c r="Q176" s="7" t="s">
@@ -11066,16 +11069,16 @@
       <c r="U176" s="7"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="18" t="s">
+      <c r="A177" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="17">
         <v>222000.0</v>
       </c>
       <c r="F177" s="14" t="s">
@@ -11093,10 +11096,10 @@
       <c r="M177" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N177" s="15" t="s">
+      <c r="N177" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="P177" s="16">
+      <c r="P177" s="17">
         <v>510.0</v>
       </c>
       <c r="Q177" s="7" t="s">
@@ -11114,16 +11117,16 @@
       <c r="U177" s="7"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="17">
         <v>288000.0</v>
       </c>
       <c r="F178" s="14" t="s">
@@ -11141,10 +11144,10 @@
       <c r="M178" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N178" s="15" t="s">
+      <c r="N178" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="P178" s="16">
+      <c r="P178" s="17">
         <v>640.0</v>
       </c>
       <c r="Q178" s="7" t="s">
@@ -11162,16 +11165,16 @@
       <c r="U178" s="7"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="17">
         <v>250000.0</v>
       </c>
       <c r="F179" s="14" t="s">
@@ -11189,10 +11192,10 @@
       <c r="M179" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N179" s="15" t="s">
+      <c r="N179" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="P179" s="16">
+      <c r="P179" s="17">
         <v>530.0</v>
       </c>
       <c r="Q179" s="7" t="s">
@@ -11210,16 +11213,16 @@
       <c r="U179" s="7"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="17">
         <v>204000.0</v>
       </c>
       <c r="F180" s="14" t="s">
@@ -11237,10 +11240,10 @@
       <c r="M180" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N180" s="15" t="s">
+      <c r="N180" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="P180" s="16">
+      <c r="P180" s="17">
         <v>440.0</v>
       </c>
       <c r="Q180" s="7" t="s">
@@ -11258,16 +11261,16 @@
       <c r="U180" s="7"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="17">
         <v>218000.0</v>
       </c>
       <c r="F181" s="14" t="s">
@@ -11285,10 +11288,10 @@
       <c r="M181" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N181" s="15" t="s">
+      <c r="N181" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="P181" s="16">
+      <c r="P181" s="17">
         <v>550.0</v>
       </c>
       <c r="Q181" s="7" t="s">
@@ -11306,16 +11309,16 @@
       <c r="U181" s="7"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="17">
         <v>170000.0</v>
       </c>
       <c r="F182" s="14" t="s">
@@ -11333,10 +11336,10 @@
       <c r="M182" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N182" s="15" t="s">
+      <c r="N182" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="P182" s="16">
+      <c r="P182" s="17">
         <v>450.0</v>
       </c>
       <c r="Q182" s="7" t="s">
@@ -11354,16 +11357,16 @@
       <c r="U182" s="7"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E183" s="16">
+      <c r="E183" s="17">
         <v>282000.0</v>
       </c>
       <c r="F183" s="14" t="s">
@@ -11381,10 +11384,10 @@
       <c r="M183" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N183" s="15" t="s">
+      <c r="N183" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="P183" s="16">
+      <c r="P183" s="17">
         <v>720.0</v>
       </c>
       <c r="Q183" s="7" t="s">
@@ -11402,16 +11405,16 @@
       <c r="U183" s="7"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="18" t="s">
+      <c r="A184" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E184" s="16">
+      <c r="E184" s="17">
         <v>185000.0</v>
       </c>
       <c r="F184" s="14" t="s">
@@ -11429,10 +11432,10 @@
       <c r="M184" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N184" s="15" t="s">
+      <c r="N184" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="P184" s="16">
+      <c r="P184" s="17">
         <v>430.0</v>
       </c>
       <c r="Q184" s="7" t="s">
@@ -11450,16 +11453,16 @@
       <c r="U184" s="7"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E185" s="16">
+      <c r="E185" s="17">
         <v>185000.0</v>
       </c>
       <c r="F185" s="14" t="s">
@@ -11477,10 +11480,10 @@
       <c r="M185" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N185" s="15" t="s">
+      <c r="N185" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="P185" s="16">
+      <c r="P185" s="17">
         <v>510.0</v>
       </c>
       <c r="Q185" s="7" t="s">
@@ -11498,16 +11501,16 @@
       <c r="U185" s="7"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="18" t="s">
+      <c r="A186" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E186" s="16">
+      <c r="E186" s="17">
         <v>254000.0</v>
       </c>
       <c r="F186" s="14" t="s">
@@ -11525,10 +11528,10 @@
       <c r="M186" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N186" s="15" t="s">
+      <c r="N186" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="P186" s="16">
+      <c r="P186" s="17">
         <v>650.0</v>
       </c>
       <c r="Q186" s="7" t="s">
@@ -11546,16 +11549,16 @@
       <c r="U186" s="7"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="18" t="s">
+      <c r="A187" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E187" s="16">
+      <c r="E187" s="17">
         <v>220000.0</v>
       </c>
       <c r="F187" s="14" t="s">
@@ -11573,10 +11576,10 @@
       <c r="M187" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N187" s="15" t="s">
+      <c r="N187" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="P187" s="16">
+      <c r="P187" s="17">
         <v>510.0</v>
       </c>
       <c r="Q187" s="7" t="s">
@@ -11594,16 +11597,16 @@
       <c r="U187" s="7"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E188" s="16">
+      <c r="E188" s="17">
         <v>240000.0</v>
       </c>
       <c r="F188" s="14" t="s">
@@ -11621,10 +11624,10 @@
       <c r="M188" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N188" s="15" t="s">
+      <c r="N188" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="P188" s="16">
+      <c r="P188" s="17">
         <v>490.0</v>
       </c>
       <c r="Q188" s="7" t="s">
@@ -11642,16 +11645,16 @@
       <c r="U188" s="7"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E189" s="16">
+      <c r="E189" s="17">
         <v>240000.0</v>
       </c>
       <c r="F189" s="14" t="s">
@@ -11669,10 +11672,10 @@
       <c r="M189" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N189" s="15" t="s">
+      <c r="N189" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="P189" s="16">
+      <c r="P189" s="17">
         <v>650.0</v>
       </c>
       <c r="Q189" s="7" t="s">
@@ -11690,16 +11693,16 @@
       <c r="U189" s="7"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="17">
         <v>301000.0</v>
       </c>
       <c r="F190" s="14" t="s">
@@ -11717,10 +11720,10 @@
       <c r="M190" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N190" s="15" t="s">
+      <c r="N190" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="P190" s="16">
+      <c r="P190" s="17">
         <v>690.0</v>
       </c>
       <c r="Q190" s="7" t="s">
@@ -11738,16 +11741,16 @@
       <c r="U190" s="7"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="18" t="s">
+      <c r="A191" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E191" s="16">
+      <c r="E191" s="17">
         <v>260000.0</v>
       </c>
       <c r="F191" s="14" t="s">
@@ -11765,10 +11768,10 @@
       <c r="M191" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N191" s="15" t="s">
+      <c r="N191" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="P191" s="16">
+      <c r="P191" s="17">
         <v>635.0</v>
       </c>
       <c r="Q191" s="7" t="s">
@@ -11786,16 +11789,16 @@
       <c r="U191" s="7"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="17">
         <v>30000.0</v>
       </c>
       <c r="F192" s="14" t="s">
@@ -11813,10 +11816,10 @@
       <c r="M192" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N192" s="15" t="s">
+      <c r="N192" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="P192" s="16">
+      <c r="P192" s="17">
         <v>150.0</v>
       </c>
       <c r="Q192" s="7" t="s">
@@ -11834,16 +11837,16 @@
       <c r="U192" s="7"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="17">
         <v>33000.0</v>
       </c>
       <c r="F193" s="14" t="s">
@@ -11861,10 +11864,10 @@
       <c r="M193" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N193" s="15" t="s">
+      <c r="N193" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="P193" s="16">
+      <c r="P193" s="17">
         <v>150.0</v>
       </c>
       <c r="Q193" s="7" t="s">
@@ -11882,16 +11885,16 @@
       <c r="U193" s="7"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="17">
         <v>33000.0</v>
       </c>
       <c r="F194" s="14" t="s">
@@ -11909,10 +11912,10 @@
       <c r="M194" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N194" s="15" t="s">
+      <c r="N194" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="P194" s="16">
+      <c r="P194" s="17">
         <v>150.0</v>
       </c>
       <c r="Q194" s="7" t="s">
@@ -11930,16 +11933,16 @@
       <c r="U194" s="7"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E195" s="16">
+      <c r="E195" s="17">
         <v>33000.0</v>
       </c>
       <c r="F195" s="14" t="s">
@@ -11957,10 +11960,10 @@
       <c r="M195" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N195" s="15" t="s">
+      <c r="N195" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="P195" s="16">
+      <c r="P195" s="17">
         <v>150.0</v>
       </c>
       <c r="Q195" s="7" t="s">
@@ -11978,16 +11981,16 @@
       <c r="U195" s="7"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E196" s="16">
+      <c r="E196" s="17">
         <v>37000.0</v>
       </c>
       <c r="F196" s="14" t="s">
@@ -12005,10 +12008,10 @@
       <c r="M196" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N196" s="15" t="s">
+      <c r="N196" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="P196" s="16">
+      <c r="P196" s="17">
         <v>150.0</v>
       </c>
       <c r="Q196" s="7" t="s">
@@ -12026,16 +12029,16 @@
       <c r="U196" s="7"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E197" s="16">
+      <c r="E197" s="17">
         <v>33000.0</v>
       </c>
       <c r="F197" s="14" t="s">
@@ -12053,10 +12056,10 @@
       <c r="M197" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N197" s="15" t="s">
+      <c r="N197" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="P197" s="16">
+      <c r="P197" s="17">
         <v>150.0</v>
       </c>
       <c r="Q197" s="7" t="s">
@@ -12074,16 +12077,16 @@
       <c r="U197" s="7"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="18" t="s">
+      <c r="A198" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D198" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E198" s="16">
+      <c r="E198" s="17">
         <v>33000.0</v>
       </c>
       <c r="F198" s="14" t="s">
@@ -12101,10 +12104,10 @@
       <c r="M198" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N198" s="15" t="s">
+      <c r="N198" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="P198" s="16">
+      <c r="P198" s="17">
         <v>150.0</v>
       </c>
       <c r="Q198" s="7" t="s">
@@ -12122,16 +12125,16 @@
       <c r="U198" s="7"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E199" s="16">
+      <c r="E199" s="17">
         <v>33000.0</v>
       </c>
       <c r="F199" s="14" t="s">
@@ -12149,10 +12152,10 @@
       <c r="M199" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N199" s="15" t="s">
+      <c r="N199" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="P199" s="16">
+      <c r="P199" s="17">
         <v>150.0</v>
       </c>
       <c r="Q199" s="7" t="s">
@@ -12170,16 +12173,16 @@
       <c r="U199" s="7"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E200" s="16">
+      <c r="E200" s="17">
         <v>33000.0</v>
       </c>
       <c r="F200" s="14" t="s">
@@ -12197,10 +12200,10 @@
       <c r="M200" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N200" s="15" t="s">
+      <c r="N200" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="P200" s="16">
+      <c r="P200" s="17">
         <v>150.0</v>
       </c>
       <c r="Q200" s="7" t="s">
@@ -12218,16 +12221,16 @@
       <c r="U200" s="7"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="18" t="s">
+      <c r="A201" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D201" s="18" t="s">
+      <c r="D201" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E201" s="16">
+      <c r="E201" s="17">
         <v>33000.0</v>
       </c>
       <c r="F201" s="14" t="s">
@@ -12245,10 +12248,10 @@
       <c r="M201" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N201" s="15" t="s">
+      <c r="N201" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="P201" s="16">
+      <c r="P201" s="17">
         <v>150.0</v>
       </c>
       <c r="Q201" s="7" t="s">
@@ -12266,16 +12269,16 @@
       <c r="U201" s="7"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="18" t="s">
+      <c r="A202" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D202" s="18" t="s">
+      <c r="D202" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E202" s="16">
+      <c r="E202" s="17">
         <v>33000.0</v>
       </c>
       <c r="F202" s="14" t="s">
@@ -12293,10 +12296,10 @@
       <c r="M202" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N202" s="15" t="s">
+      <c r="N202" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="P202" s="16">
+      <c r="P202" s="17">
         <v>150.0</v>
       </c>
       <c r="Q202" s="7" t="s">
@@ -12314,16 +12317,16 @@
       <c r="U202" s="7"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D203" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E203" s="16">
+      <c r="E203" s="17">
         <v>33000.0</v>
       </c>
       <c r="F203" s="14" t="s">
@@ -12341,10 +12344,10 @@
       <c r="M203" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N203" s="15" t="s">
+      <c r="N203" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="P203" s="16">
+      <c r="P203" s="17">
         <v>150.0</v>
       </c>
       <c r="Q203" s="7" t="s">
@@ -12362,16 +12365,16 @@
       <c r="U203" s="7"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E204" s="16">
+      <c r="E204" s="17">
         <v>33000.0</v>
       </c>
       <c r="F204" s="14" t="s">
@@ -12389,10 +12392,10 @@
       <c r="M204" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N204" s="18" t="s">
+      <c r="N204" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="P204" s="16">
+      <c r="P204" s="17">
         <v>150.0</v>
       </c>
       <c r="Q204" s="7" t="s">
@@ -12410,16 +12413,16 @@
       <c r="U204" s="7"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="18" t="s">
+      <c r="A205" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E205" s="16">
+      <c r="E205" s="17">
         <v>37000.0</v>
       </c>
       <c r="F205" s="14" t="s">
@@ -12437,10 +12440,10 @@
       <c r="M205" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N205" s="18" t="s">
+      <c r="N205" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="P205" s="16">
+      <c r="P205" s="17">
         <v>150.0</v>
       </c>
       <c r="Q205" s="7" t="s">
@@ -12458,16 +12461,16 @@
       <c r="U205" s="7"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="D206" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E206" s="16">
+      <c r="E206" s="17">
         <v>33000.0</v>
       </c>
       <c r="F206" s="14" t="s">
@@ -12485,10 +12488,10 @@
       <c r="M206" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N206" s="18" t="s">
+      <c r="N206" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="P206" s="16">
+      <c r="P206" s="17">
         <v>150.0</v>
       </c>
       <c r="Q206" s="7" t="s">
@@ -12506,16 +12509,16 @@
       <c r="U206" s="7"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="18" t="s">
+      <c r="A207" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E207" s="16">
+      <c r="E207" s="17">
         <v>33000.0</v>
       </c>
       <c r="F207" s="14" t="s">
@@ -12533,10 +12536,10 @@
       <c r="M207" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N207" s="18" t="s">
+      <c r="N207" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="P207" s="16">
+      <c r="P207" s="17">
         <v>150.0</v>
       </c>
       <c r="Q207" s="7" t="s">
@@ -12554,16 +12557,16 @@
       <c r="U207" s="7"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="18" t="s">
+      <c r="A208" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E208" s="16">
+      <c r="E208" s="17">
         <v>37000.0</v>
       </c>
       <c r="F208" s="14" t="s">
@@ -12581,10 +12584,10 @@
       <c r="M208" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N208" s="18" t="s">
+      <c r="N208" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="P208" s="16">
+      <c r="P208" s="17">
         <v>150.0</v>
       </c>
       <c r="Q208" s="7" t="s">
@@ -12602,16 +12605,16 @@
       <c r="U208" s="7"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="18" t="s">
+      <c r="A209" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D209" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E209" s="16">
+      <c r="E209" s="17">
         <v>33000.0</v>
       </c>
       <c r="F209" s="14" t="s">
@@ -12629,10 +12632,10 @@
       <c r="M209" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N209" s="18" t="s">
+      <c r="N209" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="P209" s="16">
+      <c r="P209" s="17">
         <v>150.0</v>
       </c>
       <c r="Q209" s="7" t="s">
@@ -12650,16 +12653,16 @@
       <c r="U209" s="7"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D210" s="18" t="s">
+      <c r="D210" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E210" s="16">
+      <c r="E210" s="17">
         <v>33000.0</v>
       </c>
       <c r="F210" s="14" t="s">
@@ -12677,10 +12680,10 @@
       <c r="M210" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N210" s="18" t="s">
+      <c r="N210" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="P210" s="16">
+      <c r="P210" s="17">
         <v>150.0</v>
       </c>
       <c r="Q210" s="7" t="s">
@@ -12698,16 +12701,16 @@
       <c r="U210" s="7"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="18" t="s">
+      <c r="A211" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E211" s="16">
+      <c r="E211" s="17">
         <v>37000.0</v>
       </c>
       <c r="F211" s="14" t="s">
@@ -12725,10 +12728,10 @@
       <c r="M211" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N211" s="18" t="s">
+      <c r="N211" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="P211" s="16">
+      <c r="P211" s="17">
         <v>150.0</v>
       </c>
       <c r="Q211" s="7" t="s">
@@ -12746,16 +12749,16 @@
       <c r="U211" s="7"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="18" t="s">
+      <c r="A212" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D212" s="18" t="s">
+      <c r="D212" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E212" s="16">
+      <c r="E212" s="17">
         <v>37000.0</v>
       </c>
       <c r="F212" s="14" t="s">
@@ -12773,10 +12776,10 @@
       <c r="M212" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N212" s="18" t="s">
+      <c r="N212" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="P212" s="16">
+      <c r="P212" s="17">
         <v>150.0</v>
       </c>
       <c r="Q212" s="7" t="s">
@@ -12794,16 +12797,16 @@
       <c r="U212" s="7"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="18" t="s">
+      <c r="A213" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D213" s="18" t="s">
+      <c r="D213" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E213" s="16">
+      <c r="E213" s="17">
         <v>33000.0</v>
       </c>
       <c r="F213" s="14" t="s">
@@ -12821,10 +12824,10 @@
       <c r="M213" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N213" s="18" t="s">
+      <c r="N213" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="P213" s="16">
+      <c r="P213" s="17">
         <v>150.0</v>
       </c>
       <c r="Q213" s="7" t="s">
